--- a/biology/Zoologie/Conus_biliosus/Conus_biliosus.xlsx
+++ b/biology/Zoologie/Conus_biliosus/Conus_biliosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus biliosus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille d'une coquille adulte varie entre 25 mm et 64 mm. La petite coquille est lisse et striée en dessous. Sa couleur est blanc jaunâtre, avec des rangées tournantes de taches châtaignes quadrangulaires, parfois partiellement voilées, de manière à former des bandes de nuages châtaignes. La spire est maculée[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille d'une coquille adulte varie entre 25 mm et 64 mm. La petite coquille est lisse et striée en dessous. Sa couleur est blanc jaunâtre, avec des rangées tournantes de taches châtaignes quadrangulaires, parfois partiellement voilées, de manière à former des bandes de nuages châtaignes. La spire est maculée. 
 </t>
         </is>
       </c>
@@ -543,11 +557,48 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Indien occidental (de l'Afrique du Sud à la Somalie) et au large de l'Inde et du Sri Lanka ; dans l'océan Pacifique, de l'Indonésie aux Philippines, en Papouasie-Nouvelle-Guinée, dans les îles Salomon et dans le Queensland et le Territoire du Nord, en Australie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve le long de la côte est de l'Afrique, y compris à Madagascar, et de l'Inde et des Philippines jusqu'aux îles Salomon et à la côte nord de l'Australie. Cette espèce est peu commune dans sa vaste aire de répartition géographique dans l'Indo-Pacifique[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_biliosus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_biliosus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve le long de la côte est de l'Afrique, y compris à Madagascar, et de l'Inde et des Philippines jusqu'aux îles Salomon et à la côte nord de l'Australie. Cette espèce est peu commune dans sa vaste aire de répartition géographique dans l'Indo-Pacifique.
 </t>
         </is>
       </c>
